--- a/Board/data_sheets/price_list_board.xlsx
+++ b/Board/data_sheets/price_list_board.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan Taylor\Desktop\wind_turbine_board\data_sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan Taylor\Desktop\Wind Turbine\Board\data_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Price</t>
   </si>
@@ -45,19 +45,31 @@
   </si>
   <si>
     <t>Sam4s</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>http://www.digikey.co.nz/product-detail/en/phoenix-contact/1755752/277-1152-ND/260520</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,8 +92,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,19 +411,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E28"/>
+  <dimension ref="A2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -424,8 +439,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -441,10 +459,10 @@
       </c>
       <c r="E3">
         <f>SUM(D:D)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -459,73 +477,85 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1755752</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Board/data_sheets/price_list_board.xlsx
+++ b/Board/data_sheets/price_list_board.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan Taylor\Desktop\Wind Turbine\Board\data_sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rct47/Wind-Turbine/Board/data_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Price</t>
   </si>
@@ -51,12 +57,18 @@
   </si>
   <si>
     <t>http://www.digikey.co.nz/product-detail/en/phoenix-contact/1755752/277-1152-ND/260520</t>
+  </si>
+  <si>
+    <t>101X18W104MV4E</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/johanson-dielectrics-inc/101X18W104MV4E/709-1342-1-ND/2327219</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,16 +426,17 @@
   <dimension ref="A2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -443,7 +456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -459,10 +472,10 @@
       </c>
       <c r="E3">
         <f>SUM(D:D)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -477,7 +490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1755752</v>
       </c>
@@ -495,139 +508,151 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D28">
         <f t="shared" si="0"/>
         <v>0</v>
